--- a/4. Control y Seguimiento/1.4.2 Control de Calidad.xlsx
+++ b/4. Control y Seguimiento/1.4.2 Control de Calidad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\4. Control y Seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\4. Control y Seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214CD2C3-783E-491A-AD66-33EF44A10E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D36B2F5-2B5F-4C38-B747-006D4B7217BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,102 +28,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Plataforma Web Intecil</t>
-  </si>
-  <si>
-    <t>[Fecha]</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>[Nombre del responsable]</t>
-  </si>
-  <si>
-    <t>Versión</t>
-  </si>
-  <si>
-    <t>[Número de versión del informe]</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Control de Calidad</t>
   </si>
   <si>
-    <t>1. Resultados de Control de Calidad</t>
-  </si>
-  <si>
-    <t>Ítem de Calidad</t>
-  </si>
-  <si>
     <t>Criterio de Aceptación</t>
   </si>
   <si>
-    <t>Resultado de la Revisión</t>
-  </si>
-  <si>
-    <t>Acción Correctiva Necesaria</t>
-  </si>
-  <si>
-    <t>Funcionalidad de carga de lotes</t>
-  </si>
-  <si>
-    <t>Carga de archivos sin errores</t>
-  </si>
-  <si>
-    <t>Cumple</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Interfaz de usuario</t>
-  </si>
-  <si>
-    <t>Navegación fluida e intuitiva</t>
-  </si>
-  <si>
-    <t>No cumple</t>
-  </si>
-  <si>
-    <t>Mejorar diseño de menú</t>
-  </si>
-  <si>
-    <t>2. Acciones Correctivas Implementadas</t>
-  </si>
-  <si>
-    <t>Descripción de la Acción</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>Optimización de carga de archivos grandes</t>
-  </si>
-  <si>
-    <t>Equipo de Desarrollo</t>
-  </si>
-  <si>
-    <t>Carga sin fallos</t>
-  </si>
-  <si>
-    <t>3. Próximas Evaluaciones de Calidad</t>
-  </si>
-  <si>
-    <t>Fecha Programada</t>
-  </si>
-  <si>
-    <t>Actividad de Control de Calidad</t>
-  </si>
-  <si>
-    <t>Revisión de interfaz después de mejoras</t>
+    <t>1. Objetivo del control de calidad</t>
+  </si>
+  <si>
+    <t>Evaluar si el proyecto cumple con los criterios de aceptación definidos en el plan de calidad, documentando el estado actual y las acciones requeridas para corregir desviaciones.</t>
+  </si>
+  <si>
+    <t>2. Resumen de Cumplimiento de los Criterios de Aceptación</t>
+  </si>
+  <si>
+    <t>Cumplimiento (Sí/No)</t>
+  </si>
+  <si>
+    <t>Funcionalidad completa de la plataforma</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Evidencia</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Se desarrollaron los 5 modulos definidos a lo largo del proyecto</t>
+  </si>
+  <si>
+    <t>Se desarrolló el login para controlar los accesos a la plataforma, tambien la gestion de roles para que cada usuario pueda acceder a ciertas secciones de la misma</t>
   </si>
 </sst>
 </file>
@@ -238,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,23 +189,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,13 +212,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,6 +296,314 @@
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2029203</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5410376</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2384611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0CEAAB-3361-25B0-70A9-CFAEBA547536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9353368" y="2590799"/>
+          <a:ext cx="3381173" cy="2169459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2492189</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>367553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4918367</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3302258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C2AB84-76E4-01EB-56E7-BCB77DA3FA70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9816354" y="5360894"/>
+          <a:ext cx="2426178" cy="2934705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7117976</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1809718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDEC719-0D33-9B33-2C7A-0E9D7F29616A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8301318" y="9288268"/>
+          <a:ext cx="6660776" cy="1764062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6651813</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1690971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A5AB1F-22D5-A675-8DFB-D62219937B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8426825" y="11380417"/>
+          <a:ext cx="6069106" cy="1606083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>645458</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>364285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6613850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3341941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108D9A71-8A95-085A-E8DB-9EDB2C235486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8489576" y="13569297"/>
+          <a:ext cx="5968392" cy="2977656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>119741</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3500914</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2343630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9A9F14-C558-47BF-BA60-DB4EBBF13801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7979227" y="16916400"/>
+          <a:ext cx="3381173" cy="2169459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2884714</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2313182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7445828</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4588741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A345497-B51F-40B5-AA4F-AD21B6B743F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="19055411"/>
+          <a:ext cx="4561114" cy="2275559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -624,49 +876,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.21875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="54.21875" customWidth="1"/>
+    <col min="5" max="5" width="113.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -678,209 +930,133 @@
       <c r="H5" s="2"/>
     </row>
     <row r="7" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:8" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:8" ht="334.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="2:8" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" ht="274.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="2:8" ht="381.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="27" spans="2:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="7"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:H4"/>
+    <mergeCell ref="B9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
